--- a/3 Data/materials/newCord_20.xlsx
+++ b/3 Data/materials/newCord_20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\thesis\thesis-backup\data\rubberCord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\thesis\Thesis\3 Data\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80994027-62DB-4C8F-B0B3-137985DF2B66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC4A83-2680-4010-9750-0F0F57D5B98A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12765" xr2:uid="{D7753D00-1CC0-4F73-972B-04CCE7E8D6E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12765" activeTab="1" xr2:uid="{D7753D00-1CC0-4F73-972B-04CCE7E8D6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="stretch" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>length</t>
-  </si>
-  <si>
-    <t>pos</t>
   </si>
   <si>
     <t>bend (deg)</t>
@@ -432,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA08849A-1623-4CCD-BACA-1477D1813279}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Q72" sqref="Q72"/>
@@ -3253,10 +3250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF63F41A-153C-4518-9D5C-BD04C5575FE5}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3264,552 +3261,546 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
       <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5">
+        <v>-40</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1815.34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1743.31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1797.89</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1881.37</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1843.25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1840.99</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1839.86</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1961</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1921.01</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2037.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5">
+        <v>-30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1788.21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1696.62</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1794.65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1871.99</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1845.52</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1848.93</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1850.07</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1968.68</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1904</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1962.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5">
+        <v>-20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1774.41</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1718.18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1812.04</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1828.64</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1845.52</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1866.18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1836.48</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1955.92</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1896.8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1927.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5">
+        <v>-10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1788.21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1738.23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1815.34</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1846.66</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1852.36</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1877.84</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1868.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1918.57</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1906.42</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1963.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1939.56</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1881.37</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1948.34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1984.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1985.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1992</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1988.11</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2026.75</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1989.42</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2096.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2635.97</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2532.27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2563.8200000000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2568.08</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2526.0500000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2598.3200000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2424.61</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2551.11</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2528.12</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2880.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2945.99</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2864.71</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2968.42</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2996.93</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2907.51</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2940.43</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2912.95</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2859.45</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2921.14</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2968.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3097.95</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2999.81</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3101.02</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3094.88</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3055.56</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2996.93</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3052.58</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3046.63</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3040.7</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3020.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3144.64</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3067.56</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3113.36</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3116.46</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3070.57</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3034.79</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3008.48</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3055.56</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3058.55</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3017.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3176.53</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3113.36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3135.19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3122.68</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3073.59</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3079.65</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3043.66</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3101.02</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3107.18</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3064.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="K12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>-40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1815.34</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1743.31</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1797.89</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1881.37</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1843.25</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1840.99</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1839.86</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1961</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1921.01</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2037.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="5">
-        <v>-30</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1788.21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1696.62</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1794.65</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1871.99</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1845.52</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1848.93</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1850.07</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1968.68</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1904</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1962.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="5">
-        <v>-20</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1774.41</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1718.18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1812.04</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1828.64</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1845.52</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1866.18</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1836.48</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1955.92</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1896.8</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1927.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="5">
-        <v>-10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1788.21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1738.23</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1815.34</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1846.66</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1852.36</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1877.84</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1868.5</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1918.57</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1906.42</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1963.55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1939.56</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1881.37</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1948.34</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1984.2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1985.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1992</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1988.11</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2026.75</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1989.42</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2096.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="5">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2635.97</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2532.27</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2563.8200000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2568.08</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2526.0500000000002</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2598.3200000000002</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2424.61</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2551.11</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2528.12</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2880.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="5">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2945.99</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2864.71</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2968.42</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2996.93</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2907.51</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2940.43</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2912.95</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2859.45</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2921.14</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2968.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="5">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3097.95</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2999.81</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3101.02</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3094.88</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3055.56</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2996.93</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3052.58</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3046.63</v>
-      </c>
-      <c r="K9" s="2">
-        <v>3040.7</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3020.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="5">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3144.64</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3067.56</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3113.36</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3116.46</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3070.57</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3034.79</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3008.48</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3055.56</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3058.55</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3017.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="5">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3176.53</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3113.36</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3135.19</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3122.68</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3073.59</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3079.65</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3043.66</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3101.02</v>
-      </c>
-      <c r="K11" s="2">
-        <v>3107.18</v>
-      </c>
-      <c r="L11" s="2">
-        <v>3064.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="L12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" ht="16.5">
-      <c r="B19" s="5"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="5"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="5"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="5"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
